--- a/src/test/resources/adFile.xlsx
+++ b/src/test/resources/adFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>category</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>продается колбаса</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -89,9 +95,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -397,56 +405,60 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2">
-        <v>100</v>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
